--- a/Bellabeat Visuals.xlsx
+++ b/Bellabeat Visuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1bra\Documents\GitHub\bellabeat_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA35C4B8-C5AC-47DC-9741-227323610E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866B374-430E-403A-AB02-2C2C801BF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="794" firstSheet="1" activeTab="7" xr2:uid="{40D993DE-7A23-4390-B5EB-8D5893AA4E35}"/>
   </bookViews>
@@ -401,28 +401,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -19218,7 +19218,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10A2660A-5359-417F-8275-F6C410E9FFCB}" name="Table35" displayName="Table35" ref="A1:B34" totalsRowShown="0">
   <autoFilter ref="A1:B34" xr:uid="{10A2660A-5359-417F-8275-F6C410E9FFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{05EDC516-420D-484F-8F18-0CBADCF45660}" name="IndexColumn" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{05EDC516-420D-484F-8F18-0CBADCF45660}" name="IndexColumn" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{36ABD3F4-5B04-4A30-B200-0F8DC0D7415E}" name="record_count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19277,8 +19277,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1701D762-B646-4972-B2A2-C863C31C0771}" name="Table38" displayName="Table38" ref="A1:C34" totalsRowShown="0">
   <autoFilter ref="A1:C34" xr:uid="{1701D762-B646-4972-B2A2-C863C31C0771}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0D67F87C-64D5-4326-9176-97BA735E92AA}" name="IndexColumn" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2F2A13D0-5075-4040-9991-D83AA5F73A70}" name="avg_active_hours_per_Id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0D67F87C-64D5-4326-9176-97BA735E92AA}" name="IndexColumn" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2F2A13D0-5075-4040-9991-D83AA5F73A70}" name="avg_active_hours_per_Id" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{64352E56-D272-4D24-8731-5E7FA2FE3BFE}" name="avg_daily_steps_per_Id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19298,7 +19298,7 @@
     <tableColumn id="7" xr3:uid="{43ED357D-6AF3-4BBB-84F0-12E20FE5B7E6}" name="AVG Very Active Minutes Per Day"/>
     <tableColumn id="8" xr3:uid="{7B66D996-1CF9-449D-B5E3-28A2ED78A950}" name="AVG Fairly Active Minutes Per Day"/>
     <tableColumn id="9" xr3:uid="{8DCCE462-1B4D-4B05-A56E-D7D714F66C72}" name="AVG Lightly Active Minutes Per Day"/>
-    <tableColumn id="10" xr3:uid="{B8E1D729-BDAD-4248-8F60-6CF2DDEAA23B}" name="AVG Sedentary Minutes Per Day" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{B8E1D729-BDAD-4248-8F60-6CF2DDEAA23B}" name="AVG Sedentary Minutes Per Day" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{EB22A8E8-0571-4D31-A0FA-9510E06BBA16}" name="AVG Very Active Distance Per Day (km)"/>
     <tableColumn id="12" xr3:uid="{418029CB-C635-447F-B378-65568EAE9A3F}" name="AVG Fairly Active Distance Per Day (km)"/>
     <tableColumn id="13" xr3:uid="{7E1B2044-A38D-44C7-A8A5-6227C5E758F5}" name="AVG Lightly Active Distance Per Day (km)"/>
@@ -24038,7 +24038,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:C72"/>
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
